--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="24915" windowHeight="12855" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="24915" windowHeight="12855" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DinoStats" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="369">
   <si>
     <t>Dinosaur</t>
   </si>
@@ -1121,6 +1121,9 @@
   </si>
   <si>
     <t>Swap-in</t>
+  </si>
+  <si>
+    <t>http://jurassic-world-alive.wikia.com/wiki/List_of_Abilities</t>
   </si>
 </sst>
 </file>
@@ -5637,10 +5640,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F113"/>
+  <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5654,61 +5657,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="A1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C4" t="s">
         <v>206</v>
@@ -5720,40 +5708,40 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F5" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>211</v>
-      </c>
-      <c r="B6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C7" t="s">
         <v>206</v>
@@ -5765,15 +5753,15 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>177</v>
+        <v>214</v>
       </c>
       <c r="B8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C8" t="s">
         <v>206</v>
@@ -5785,15 +5773,15 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C9" t="s">
         <v>206</v>
@@ -5805,15 +5793,15 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>221</v>
+        <v>175</v>
       </c>
       <c r="B10" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C10" t="s">
         <v>206</v>
@@ -5825,12 +5813,12 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>221</v>
       </c>
       <c r="B11" t="s">
         <v>217</v>
@@ -5845,15 +5833,15 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C12" t="s">
         <v>206</v>
@@ -5865,15 +5853,15 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="B13" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C13" t="s">
         <v>206</v>
@@ -5885,15 +5873,15 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="B14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C14" t="s">
         <v>206</v>
@@ -5905,15 +5893,15 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="B15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C15" t="s">
         <v>206</v>
@@ -5925,408 +5913,408 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" t="s">
+        <v>230</v>
+      </c>
+      <c r="C16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F16" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>154</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>233</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>206</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>165</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>235</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
         <v>3</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F22" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>239</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>240</v>
       </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
         <v>3</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F25" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
         <v>238</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>174</v>
-      </c>
-      <c r="B28" t="s">
-        <v>242</v>
-      </c>
-      <c r="C28" t="s">
-        <v>243</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="B29" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C29" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>157</v>
+      </c>
+      <c r="B30" t="s">
+        <v>244</v>
+      </c>
+      <c r="C30" t="s">
+        <v>245</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>246</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>247</v>
       </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
         <v>2</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F31" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
         <v>249</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>250</v>
-      </c>
-      <c r="B33" t="s">
-        <v>251</v>
-      </c>
-      <c r="C33" t="s">
-        <v>243</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>157</v>
+        <v>250</v>
       </c>
       <c r="B34" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C34" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>157</v>
+      </c>
+      <c r="B35" t="s">
+        <v>244</v>
+      </c>
+      <c r="C35" t="s">
+        <v>245</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>252</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>253</v>
       </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
         <v>3</v>
       </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F36" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F37" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
         <v>255</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>168</v>
-      </c>
-      <c r="B38" t="s">
-        <v>256</v>
-      </c>
-      <c r="C38">
-        <v>1.5</v>
-      </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>258</v>
+        <v>168</v>
       </c>
       <c r="B39" t="s">
-        <v>259</v>
-      </c>
-      <c r="C39" t="s">
-        <v>206</v>
+        <v>256</v>
+      </c>
+      <c r="C39">
+        <v>1.5</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>149</v>
+        <v>258</v>
       </c>
       <c r="B40" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C40" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
         <v>1</v>
       </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
       <c r="F40" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>263</v>
+        <v>149</v>
       </c>
       <c r="B41" t="s">
-        <v>208</v>
+        <v>261</v>
       </c>
       <c r="C41" t="s">
         <v>243</v>
       </c>
       <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>263</v>
+      </c>
+      <c r="B42" t="s">
+        <v>208</v>
+      </c>
+      <c r="C42" t="s">
+        <v>243</v>
+      </c>
+      <c r="D42">
         <v>2</v>
       </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F42" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>264</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>265</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>245</v>
       </c>
-      <c r="D43">
+      <c r="D44">
         <v>1</v>
       </c>
-      <c r="E43">
+      <c r="E44">
         <v>1</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F44" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F44" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>170</v>
-      </c>
-      <c r="B45" t="s">
-        <v>259</v>
-      </c>
-      <c r="C45" t="s">
-        <v>243</v>
-      </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>267</v>
+        <v>170</v>
       </c>
       <c r="B46" t="s">
         <v>259</v>
       </c>
       <c r="C46" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -6340,13 +6328,13 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>186</v>
+        <v>267</v>
       </c>
       <c r="B47" t="s">
         <v>259</v>
       </c>
       <c r="C47" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -6360,55 +6348,55 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>186</v>
+      </c>
+      <c r="B48" t="s">
+        <v>259</v>
+      </c>
+      <c r="C48" t="s">
+        <v>206</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>268</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>269</v>
       </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
         <v>4</v>
       </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F49" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
         <v>271</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>272</v>
-      </c>
-      <c r="B50" t="s">
-        <v>273</v>
-      </c>
-      <c r="C50" t="s">
-        <v>206</v>
-      </c>
-      <c r="D50">
-        <v>3</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B51" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="C51" t="s">
         <v>206</v>
@@ -6420,18 +6408,18 @@
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>164</v>
+        <v>275</v>
       </c>
       <c r="B52" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="C52" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="D52">
         <v>3</v>
@@ -6440,18 +6428,18 @@
         <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>279</v>
+        <v>164</v>
       </c>
       <c r="B53" t="s">
         <v>277</v>
       </c>
       <c r="C53" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="D53">
         <v>3</v>
@@ -6465,53 +6453,53 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>181</v>
+        <v>279</v>
       </c>
       <c r="B54" t="s">
-        <v>215</v>
+        <v>277</v>
       </c>
       <c r="C54" t="s">
         <v>206</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="B55" t="s">
-        <v>281</v>
-      </c>
-      <c r="C55">
-        <v>1.5</v>
+        <v>215</v>
+      </c>
+      <c r="C55" t="s">
+        <v>206</v>
       </c>
       <c r="D55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>283</v>
+        <v>151</v>
       </c>
       <c r="B56" t="s">
-        <v>284</v>
-      </c>
-      <c r="C56" t="s">
-        <v>245</v>
+        <v>281</v>
+      </c>
+      <c r="C56">
+        <v>1.5</v>
       </c>
       <c r="D56">
         <v>3</v>
@@ -6525,19 +6513,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>147</v>
+        <v>283</v>
       </c>
       <c r="B57" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C57" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="D57">
         <v>3</v>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57" t="s">
         <v>282</v>
@@ -6545,70 +6533,70 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B58" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C58" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58">
         <v>2</v>
       </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
       <c r="F58" t="s">
-        <v>229</v>
+        <v>282</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="B59" t="s">
-        <v>286</v>
-      </c>
-      <c r="C59">
-        <v>1.5</v>
+        <v>285</v>
+      </c>
+      <c r="C59" t="s">
+        <v>243</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" t="s">
-        <v>287</v>
+        <v>229</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>288</v>
+        <v>172</v>
       </c>
       <c r="B60" t="s">
-        <v>289</v>
-      </c>
-      <c r="C60" t="s">
-        <v>206</v>
+        <v>286</v>
+      </c>
+      <c r="C60">
+        <v>1.5</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B61" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C61" t="s">
         <v>206</v>
@@ -6617,116 +6605,116 @@
         <v>2</v>
       </c>
       <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>291</v>
+      </c>
+      <c r="B62" t="s">
+        <v>284</v>
+      </c>
+      <c r="C62" t="s">
+        <v>206</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
         <v>1</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F62" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F62" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F63" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>294</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B64" t="s">
         <v>259</v>
       </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="D63">
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
         <v>1</v>
       </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63" t="s">
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F64" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F65" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>296</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>297</v>
       </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="D65">
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
         <v>3</v>
       </c>
-      <c r="E65">
+      <c r="E66">
         <v>1</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F66" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F66" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F67" t="s">
         <v>298</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>299</v>
-      </c>
-      <c r="B67" t="s">
-        <v>300</v>
-      </c>
-      <c r="C67" t="s">
-        <v>206</v>
-      </c>
-      <c r="D67">
-        <v>2</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>162</v>
+        <v>299</v>
       </c>
       <c r="B68" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C68" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="B69" t="s">
         <v>302</v>
       </c>
       <c r="C69" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -6740,33 +6728,33 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>304</v>
+        <v>180</v>
       </c>
       <c r="B70" t="s">
-        <v>297</v>
-      </c>
-      <c r="C70">
-        <v>0</v>
+        <v>302</v>
+      </c>
+      <c r="C70" t="s">
+        <v>206</v>
       </c>
       <c r="D70">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>160</v>
+        <v>304</v>
       </c>
       <c r="B71" t="s">
-        <v>306</v>
-      </c>
-      <c r="C71" t="s">
-        <v>206</v>
+        <v>297</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
       </c>
       <c r="D71">
         <v>4</v>
@@ -6775,72 +6763,72 @@
         <v>0</v>
       </c>
       <c r="F71" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>308</v>
+        <v>160</v>
       </c>
       <c r="B72" t="s">
-        <v>215</v>
+        <v>306</v>
       </c>
       <c r="C72" t="s">
         <v>206</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B73" t="s">
-        <v>311</v>
+        <v>215</v>
       </c>
       <c r="C73" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>167</v>
+        <v>310</v>
       </c>
       <c r="B74" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C74" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B75" t="s">
         <v>313</v>
@@ -6855,15 +6843,15 @@
         <v>0</v>
       </c>
       <c r="F75" t="s">
-        <v>229</v>
+        <v>314</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>315</v>
+        <v>176</v>
       </c>
       <c r="B76" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="C76" t="s">
         <v>245</v>
@@ -6872,211 +6860,211 @@
         <v>1</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" t="s">
-        <v>287</v>
+        <v>229</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>315</v>
+      </c>
+      <c r="B77" t="s">
+        <v>286</v>
+      </c>
+      <c r="C77" t="s">
+        <v>245</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>316</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
         <v>277</v>
       </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-      <c r="D77">
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
         <v>3</v>
       </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77" t="s">
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F78" t="s">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F79" t="s">
         <v>318</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>183</v>
-      </c>
-      <c r="B79" t="s">
-        <v>306</v>
-      </c>
-      <c r="C79" t="s">
-        <v>206</v>
-      </c>
-      <c r="D79">
-        <v>2</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="B80" t="s">
-        <v>247</v>
-      </c>
-      <c r="C80">
-        <v>1.5</v>
+        <v>306</v>
+      </c>
+      <c r="C80" t="s">
+        <v>206</v>
       </c>
       <c r="D80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>321</v>
+        <v>150</v>
       </c>
       <c r="B81" t="s">
-        <v>277</v>
-      </c>
-      <c r="C81" t="s">
-        <v>206</v>
+        <v>247</v>
+      </c>
+      <c r="C81">
+        <v>1.5</v>
       </c>
       <c r="D81">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="F81" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>152</v>
+        <v>321</v>
       </c>
       <c r="B82" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="C82" t="s">
         <v>206</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
       <c r="F82" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B83" t="s">
-        <v>323</v>
+        <v>286</v>
       </c>
       <c r="C83" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" t="s">
-        <v>324</v>
+        <v>287</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>146</v>
+      </c>
+      <c r="B84" t="s">
+        <v>323</v>
+      </c>
+      <c r="C84" t="s">
+        <v>243</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>325</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>215</v>
       </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84" t="s">
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F85" t="s">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F86" t="s">
         <v>327</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>144</v>
-      </c>
-      <c r="B86" t="s">
-        <v>247</v>
-      </c>
-      <c r="C86" t="s">
-        <v>243</v>
-      </c>
-      <c r="D86">
-        <v>3</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>329</v>
+        <v>144</v>
       </c>
       <c r="B87" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="C87" t="s">
         <v>243</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
       <c r="F87" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B88" t="s">
         <v>300</v>
       </c>
       <c r="C88" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -7090,13 +7078,13 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B89" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="C89" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -7108,303 +7096,323 @@
         <v>330</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>332</v>
+      </c>
+      <c r="B90" t="s">
+        <v>333</v>
+      </c>
+      <c r="C90" t="s">
+        <v>206</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B93" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C93" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D93" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="E93" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="F92" s="2" t="s">
+      <c r="F93" s="2" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>161</v>
-      </c>
-      <c r="B93" t="s">
-        <v>334</v>
-      </c>
-      <c r="C93" t="s">
-        <v>335</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-      <c r="F93" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>161</v>
+      </c>
+      <c r="B94" t="s">
+        <v>334</v>
+      </c>
+      <c r="C94" t="s">
+        <v>335</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>158</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B95" t="s">
         <v>337</v>
       </c>
-      <c r="C94">
-        <v>0</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94" t="s">
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B98" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C98" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D98" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="E98" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="F97" s="2" t="s">
+      <c r="F98" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>339</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B99" t="s">
         <v>340</v>
       </c>
-      <c r="C98">
-        <v>0</v>
-      </c>
-      <c r="D98">
-        <v>0</v>
-      </c>
-      <c r="E98">
-        <v>0</v>
-      </c>
-      <c r="F98" t="s">
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F99" t="s">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F100" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>343</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B101" t="s">
         <v>344</v>
       </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-      <c r="F100" t="s">
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F101" t="s">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F102" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>347</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B103" t="s">
         <v>348</v>
       </c>
-      <c r="C102">
-        <v>0</v>
-      </c>
-      <c r="D102">
-        <v>0</v>
-      </c>
-      <c r="E102">
-        <v>0</v>
-      </c>
-      <c r="F102" t="s">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F103" t="s">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F104" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>350</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B105" t="s">
         <v>340</v>
       </c>
-      <c r="C104">
-        <v>0</v>
-      </c>
-      <c r="D104">
-        <v>0</v>
-      </c>
-      <c r="E104">
-        <v>0</v>
-      </c>
-      <c r="F104" t="s">
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F105" t="s">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F106" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>352</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B107" t="s">
         <v>353</v>
       </c>
-      <c r="C106">
-        <v>0</v>
-      </c>
-      <c r="D106">
-        <v>0</v>
-      </c>
-      <c r="E106">
-        <v>0</v>
-      </c>
-      <c r="F106" t="s">
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F107" t="s">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F108" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>355</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B109" t="s">
         <v>356</v>
       </c>
-      <c r="C108">
-        <v>0</v>
-      </c>
-      <c r="D108">
-        <v>0</v>
-      </c>
-      <c r="E108">
-        <v>0</v>
-      </c>
-      <c r="F108" t="s">
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F109" t="s">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F110" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>358</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B111" t="s">
         <v>359</v>
       </c>
-      <c r="C110">
-        <v>0</v>
-      </c>
-      <c r="D110">
-        <v>0</v>
-      </c>
-      <c r="E110">
-        <v>0</v>
-      </c>
-      <c r="F110" t="s">
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F111" t="s">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F112" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>362</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B113" t="s">
         <v>363</v>
       </c>
-      <c r="C112">
-        <v>0</v>
-      </c>
-      <c r="D112">
-        <v>0</v>
-      </c>
-      <c r="E112">
-        <v>0</v>
-      </c>
-      <c r="F112" t="s">
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="113" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F113" t="s">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F114" t="s">
         <v>342</v>
       </c>
     </row>
@@ -7417,7 +7425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
